--- a/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Edad-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,34</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 1,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 1,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 1,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 2,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 2,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,73; 2,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,99</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,95</t>
+          <t>1,46; 2,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,89</t>
+          <t>1,84; 2,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,06</t>
+          <t>1,72; 2,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>2,03</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,78</t>
+          <t>1,4; 2,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,78</t>
+          <t>1,87; 2,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,64</t>
+          <t>1,77; 2,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,87</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,49</t>
+          <t>1,43; 2,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,45</t>
+          <t>1,51; 2,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,32</t>
+          <t>1,56; 2,23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>1,74</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,16</t>
+          <t>1,24; 2,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,67</t>
+          <t>1,39; 2,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,26</t>
+          <t>1,43; 2,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -879,24 +879,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,16</t>
+          <t>1,01; 1,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,77</t>
+          <t>0,89; 1,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,36</t>
+          <t>1,04; 1,66</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,82</t>
         </is>
       </c>
     </row>
@@ -929,185 +929,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,44</t>
+          <t>1,59; 1,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,32</t>
+          <t>1,72; 2,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,21</t>
+          <t>1,7; 1,94</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 2,25</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 2,37</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 2,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 1,95</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 1,73</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 1,64</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 1,91</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 2,05</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 1,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del tráfico durante la noche en el interior de la vivienda</t>
+          <t>Molestia del ruido del tráfico durante la noche en el interior de la vivienda (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_NOCHE-Edad-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,77</t>
+          <t>0,98; 1,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,74</t>
+          <t>1,0; 1,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,66</t>
+          <t>1,1; 1,63</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,49</t>
+          <t>1,7; 2,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,42</t>
+          <t>1,57; 2,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,32</t>
+          <t>1,74; 2,32</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,16</t>
+          <t>1,47; 2,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,68</t>
+          <t>1,81; 2,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,27</t>
+          <t>1,74; 2,27</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,14</t>
+          <t>1,41; 2,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,79</t>
+          <t>1,88; 2,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,35</t>
+          <t>1,73; 2,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,55</t>
+          <t>1,36; 2,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,32</t>
+          <t>1,53; 2,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,23</t>
+          <t>1,6; 2,26</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,19</t>
+          <t>1,22; 2,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,39</t>
+          <t>1,33; 2,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,11</t>
+          <t>1,44; 2,15</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,95</t>
+          <t>1,0; 1,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,65</t>
+          <t>0,91; 1,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,66</t>
+          <t>1,05; 1,63</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,03</t>
+          <t>1,71; 2,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,7; 1,94</t>
+          <t>1,7; 1,93</t>
         </is>
       </c>
     </row>
